--- a/TestData/EntityExcelFile.xlsx
+++ b/TestData/EntityExcelFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F47B9-4443-405B-A33E-71C2880DA8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="420"/>
   </bookViews>
   <sheets>
     <sheet name="Entity Master" sheetId="1" r:id="rId1"/>
@@ -821,19 +820,19 @@
     <t>abc@gmail.com</t>
   </si>
   <si>
-    <t>U72266KA2562PLC812311</t>
-  </si>
-  <si>
-    <t>AABCT5124K</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAA SERVICE LLP     </t>
+  </si>
+  <si>
+    <t>U72266KA2562PLC278030</t>
+  </si>
+  <si>
+    <t>AABCT5704K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,23 +1030,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1083,23 +1065,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,39 +1240,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="22.44140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="24.5546875" style="7" customWidth="1"/>
-    <col min="18" max="20" width="22.44140625" style="7" customWidth="1"/>
-    <col min="21" max="22" width="29.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="22.44140625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="27.5546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="24.109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="22.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="7" customWidth="1"/>
+    <col min="18" max="20" width="22.42578125" style="7" customWidth="1"/>
+    <col min="21" max="22" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="22.42578125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="6" customWidth="1"/>
     <col min="29" max="29" width="17" style="6" customWidth="1"/>
     <col min="30" max="30" width="20" style="6" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.44140625" style="6" customWidth="1"/>
-    <col min="33" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" style="6" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>251</v>
       </c>
@@ -1405,21 +1370,21 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
@@ -1463,34 +1428,34 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{2EFD1AA3-2315-4C8C-9CC0-E0E48D2104B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"Private Limited Company, Public Limited, Listed Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{49B20153-9602-495E-9B84-FD295F10710B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{F2BF4083-A7F4-437E-8FD3-048FDC8F1DB0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"Company limited by shares,Company limited by guarantee,Unlimited company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{40512010-0914-403E-8D92-CD8EB3416B6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"Indian Non-government Company,Union Government Company,State Government Company,Guarantee and Association Company,Subsidiary of Company Incorporated Outside India"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{D34C6DAB-A820-4900-B9EB-118B80794EC1}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0785E2A-7F8B-4AD1-94CB-11933042C339}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$A$1:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C9F5D7C-3F18-457A-AF0E-267B709AFE4D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data_ROC!$C$1:$C$40</xm:f>
           </x14:formula1>
@@ -1503,23 +1468,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4F2B8C-8676-4A5A-9F8A-E75988077988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1569,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1621,7 +1586,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1620,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1637,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1654,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1671,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1688,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1705,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1739,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1756,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1773,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1790,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1842,7 +1807,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +1824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1876,7 +1841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1893,7 +1858,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1875,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +1892,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>52</v>
       </c>
@@ -1941,7 +1906,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +1920,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1934,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -1983,7 +1948,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>55</v>
       </c>
@@ -1997,7 +1962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>56</v>
       </c>
@@ -2011,7 +1976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>57</v>
       </c>
@@ -2025,7 +1990,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -2039,7 +2004,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -2053,7 +2018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>60</v>
       </c>
@@ -2067,7 +2032,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -2081,7 +2046,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2060,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>63</v>
       </c>
@@ -2109,7 +2074,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>64</v>
       </c>
@@ -2123,7 +2088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>66</v>
       </c>
@@ -2151,7 +2116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>108</v>
       </c>
@@ -2162,7 +2127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>109</v>
       </c>
@@ -2173,7 +2138,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>110</v>
       </c>
@@ -2184,7 +2149,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>111</v>
       </c>
@@ -2195,7 +2160,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>112</v>
       </c>
@@ -2206,7 +2171,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>113</v>
       </c>
@@ -2217,7 +2182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>114</v>
       </c>
@@ -2228,7 +2193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>115</v>
       </c>
@@ -2239,7 +2204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>116</v>
       </c>
@@ -2250,7 +2215,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>117</v>
       </c>
@@ -2261,7 +2226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>118</v>
       </c>
@@ -2272,7 +2237,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>119</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>120</v>
       </c>
@@ -2294,7 +2259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
         <v>121</v>
       </c>
@@ -2305,7 +2270,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="4" t="s">
         <v>122</v>
       </c>
@@ -2316,7 +2281,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="4" t="s">
         <v>123</v>
       </c>
@@ -2327,7 +2292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="4" t="s">
         <v>124</v>
       </c>
@@ -2338,7 +2303,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="s">
         <v>125</v>
       </c>
@@ -2349,7 +2314,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
         <v>126</v>
       </c>
@@ -2360,7 +2325,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
         <v>127</v>
       </c>
@@ -2371,7 +2336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E61" s="4" t="s">
         <v>128</v>
       </c>
@@ -2382,7 +2347,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" s="4" t="s">
         <v>129</v>
       </c>
@@ -2393,7 +2358,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>190</v>
       </c>
@@ -2401,7 +2366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>191</v>
       </c>
@@ -2409,7 +2374,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>192</v>
       </c>
@@ -2417,7 +2382,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>193</v>
       </c>
@@ -2425,7 +2390,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>194</v>
       </c>
@@ -2433,7 +2398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>195</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>196</v>
       </c>
@@ -2449,7 +2414,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>197</v>
       </c>
@@ -2457,7 +2422,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>198</v>
       </c>
@@ -2465,7 +2430,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>199</v>
       </c>
@@ -2473,7 +2438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>200</v>
       </c>
@@ -2481,7 +2446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>201</v>
       </c>
@@ -2489,7 +2454,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>202</v>
       </c>
@@ -2497,7 +2462,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>203</v>
       </c>
@@ -2505,7 +2470,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>204</v>
       </c>
@@ -2513,7 +2478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>205</v>
       </c>
@@ -2521,7 +2486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>206</v>
       </c>
@@ -2529,7 +2494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>207</v>
       </c>
@@ -2537,7 +2502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>208</v>
       </c>
@@ -2545,7 +2510,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>209</v>
       </c>
@@ -2553,7 +2518,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>210</v>
       </c>
@@ -2561,7 +2526,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>211</v>
       </c>
@@ -2569,7 +2534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>212</v>
       </c>
@@ -2577,7 +2542,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>213</v>
       </c>
@@ -2585,7 +2550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>213</v>
       </c>
@@ -2593,7 +2558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>214</v>
       </c>
@@ -2601,7 +2566,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>215</v>
       </c>
@@ -2609,7 +2574,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>216</v>
       </c>
@@ -2617,7 +2582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>217</v>
       </c>
@@ -2625,7 +2590,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>218</v>
       </c>
@@ -2633,7 +2598,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>219</v>
       </c>
